--- a/data/chem_data_1.xlsx
+++ b/data/chem_data_1.xlsx
@@ -89,9 +89,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -194,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +228,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -312,14 +307,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T163"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="A152" activeCellId="0" sqref="A152"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="C159" activeCellId="0" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="18.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3786,117 +3781,313 @@
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
     </row>
-    <row r="152" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
-      <c r="M159" s="9"/>
-      <c r="N159" s="9"/>
-      <c r="O159" s="9"/>
-      <c r="P159" s="9"/>
-      <c r="Q159" s="9"/>
-      <c r="R159" s="9"/>
-      <c r="S159" s="9"/>
-      <c r="T159" s="9"/>
-    </row>
-    <row r="160" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-      <c r="M160" s="9"/>
-      <c r="N160" s="9"/>
-      <c r="O160" s="9"/>
-      <c r="P160" s="9"/>
-      <c r="Q160" s="9"/>
-      <c r="R160" s="9"/>
-      <c r="S160" s="9"/>
-      <c r="T160" s="9"/>
-    </row>
-    <row r="161" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="9"/>
-      <c r="N161" s="9"/>
-      <c r="O161" s="9"/>
-      <c r="P161" s="9"/>
-      <c r="Q161" s="9"/>
-      <c r="R161" s="9"/>
-      <c r="S161" s="9"/>
-      <c r="T161" s="9"/>
-    </row>
-    <row r="162" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
-      <c r="L162" s="9"/>
-      <c r="M162" s="9"/>
-      <c r="N162" s="9"/>
-      <c r="O162" s="9"/>
-      <c r="P162" s="9"/>
-      <c r="Q162" s="9"/>
-      <c r="R162" s="9"/>
-      <c r="S162" s="9"/>
-      <c r="T162" s="9"/>
-    </row>
-    <row r="163" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
-      <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-      <c r="N163" s="9"/>
-      <c r="O163" s="9"/>
-      <c r="P163" s="9"/>
-      <c r="Q163" s="9"/>
-      <c r="R163" s="9"/>
-      <c r="S163" s="9"/>
-      <c r="T163" s="9"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0"/>
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
+      <c r="H152" s="0"/>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+      <c r="L152" s="0"/>
+      <c r="M152" s="0"/>
+      <c r="N152" s="0"/>
+      <c r="O152" s="0"/>
+      <c r="P152" s="0"/>
+      <c r="Q152" s="0"/>
+      <c r="R152" s="0"/>
+      <c r="S152" s="0"/>
+      <c r="T152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0"/>
+      <c r="B153" s="0"/>
+      <c r="C153" s="0"/>
+      <c r="D153" s="0"/>
+      <c r="E153" s="0"/>
+      <c r="F153" s="0"/>
+      <c r="G153" s="0"/>
+      <c r="H153" s="0"/>
+      <c r="I153" s="0"/>
+      <c r="J153" s="0"/>
+      <c r="K153" s="0"/>
+      <c r="L153" s="0"/>
+      <c r="M153" s="0"/>
+      <c r="N153" s="0"/>
+      <c r="O153" s="0"/>
+      <c r="P153" s="0"/>
+      <c r="Q153" s="0"/>
+      <c r="R153" s="0"/>
+      <c r="S153" s="0"/>
+      <c r="T153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0"/>
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+      <c r="D154" s="0"/>
+      <c r="E154" s="0"/>
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
+      <c r="H154" s="0"/>
+      <c r="I154" s="0"/>
+      <c r="J154" s="0"/>
+      <c r="K154" s="0"/>
+      <c r="L154" s="0"/>
+      <c r="M154" s="0"/>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
+      <c r="Q154" s="0"/>
+      <c r="R154" s="0"/>
+      <c r="S154" s="0"/>
+      <c r="T154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0"/>
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0"/>
+      <c r="F155" s="0"/>
+      <c r="G155" s="0"/>
+      <c r="H155" s="0"/>
+      <c r="I155" s="0"/>
+      <c r="J155" s="0"/>
+      <c r="K155" s="0"/>
+      <c r="L155" s="0"/>
+      <c r="M155" s="0"/>
+      <c r="N155" s="0"/>
+      <c r="O155" s="0"/>
+      <c r="P155" s="0"/>
+      <c r="Q155" s="0"/>
+      <c r="R155" s="0"/>
+      <c r="S155" s="0"/>
+      <c r="T155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0"/>
+      <c r="B156" s="0"/>
+      <c r="C156" s="0"/>
+      <c r="D156" s="0"/>
+      <c r="E156" s="0"/>
+      <c r="F156" s="0"/>
+      <c r="G156" s="0"/>
+      <c r="H156" s="0"/>
+      <c r="I156" s="0"/>
+      <c r="J156" s="0"/>
+      <c r="K156" s="0"/>
+      <c r="L156" s="0"/>
+      <c r="M156" s="0"/>
+      <c r="N156" s="0"/>
+      <c r="O156" s="0"/>
+      <c r="P156" s="0"/>
+      <c r="Q156" s="0"/>
+      <c r="R156" s="0"/>
+      <c r="S156" s="0"/>
+      <c r="T156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0"/>
+      <c r="B157" s="0"/>
+      <c r="C157" s="0"/>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
+      <c r="H157" s="0"/>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
+      <c r="K157" s="0"/>
+      <c r="L157" s="0"/>
+      <c r="M157" s="0"/>
+      <c r="N157" s="0"/>
+      <c r="O157" s="0"/>
+      <c r="P157" s="0"/>
+      <c r="Q157" s="0"/>
+      <c r="R157" s="0"/>
+      <c r="S157" s="0"/>
+      <c r="T157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0"/>
+      <c r="B158" s="0"/>
+      <c r="C158" s="0"/>
+      <c r="D158" s="0"/>
+      <c r="E158" s="0"/>
+      <c r="F158" s="0"/>
+      <c r="G158" s="0"/>
+      <c r="H158" s="0"/>
+      <c r="I158" s="0"/>
+      <c r="J158" s="0"/>
+      <c r="K158" s="0"/>
+      <c r="L158" s="0"/>
+      <c r="M158" s="0"/>
+      <c r="N158" s="0"/>
+      <c r="O158" s="0"/>
+      <c r="P158" s="0"/>
+      <c r="Q158" s="0"/>
+      <c r="R158" s="0"/>
+      <c r="S158" s="0"/>
+      <c r="T158" s="0"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0"/>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
+      <c r="F159" s="0"/>
+      <c r="G159" s="0"/>
+      <c r="H159" s="0"/>
+      <c r="I159" s="0"/>
+      <c r="J159" s="0"/>
+      <c r="K159" s="0"/>
+      <c r="L159" s="0"/>
+      <c r="M159" s="0"/>
+      <c r="N159" s="0"/>
+      <c r="O159" s="0"/>
+      <c r="P159" s="0"/>
+      <c r="Q159" s="0"/>
+      <c r="R159" s="0"/>
+      <c r="S159" s="0"/>
+      <c r="T159" s="0"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0"/>
+      <c r="B160" s="0"/>
+      <c r="C160" s="0"/>
+      <c r="D160" s="0"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="0"/>
+      <c r="G160" s="0"/>
+      <c r="H160" s="0"/>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
+      <c r="K160" s="0"/>
+      <c r="L160" s="0"/>
+      <c r="M160" s="0"/>
+      <c r="N160" s="0"/>
+      <c r="O160" s="0"/>
+      <c r="P160" s="0"/>
+      <c r="Q160" s="0"/>
+      <c r="R160" s="0"/>
+      <c r="S160" s="0"/>
+      <c r="T160" s="0"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
+      <c r="C161" s="0"/>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+      <c r="F161" s="0"/>
+      <c r="G161" s="0"/>
+      <c r="H161" s="0"/>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
+      <c r="K161" s="0"/>
+      <c r="L161" s="0"/>
+      <c r="M161" s="0"/>
+      <c r="N161" s="0"/>
+      <c r="O161" s="0"/>
+      <c r="P161" s="0"/>
+      <c r="Q161" s="0"/>
+      <c r="R161" s="0"/>
+      <c r="S161" s="0"/>
+      <c r="T161" s="0"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0"/>
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
+      <c r="D162" s="0"/>
+      <c r="E162" s="0"/>
+      <c r="F162" s="0"/>
+      <c r="G162" s="0"/>
+      <c r="H162" s="0"/>
+      <c r="I162" s="0"/>
+      <c r="J162" s="0"/>
+      <c r="K162" s="0"/>
+      <c r="L162" s="0"/>
+      <c r="M162" s="0"/>
+      <c r="N162" s="0"/>
+      <c r="O162" s="0"/>
+      <c r="P162" s="0"/>
+      <c r="Q162" s="0"/>
+      <c r="R162" s="0"/>
+      <c r="S162" s="0"/>
+      <c r="T162" s="0"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="H163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+      <c r="K163" s="0"/>
+      <c r="L163" s="0"/>
+      <c r="M163" s="0"/>
+      <c r="N163" s="0"/>
+      <c r="O163" s="0"/>
+      <c r="P163" s="0"/>
+      <c r="Q163" s="0"/>
+      <c r="R163" s="0"/>
+      <c r="S163" s="0"/>
+      <c r="T163" s="0"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0"/>
+      <c r="B164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
+      <c r="H164" s="0"/>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
+      <c r="K164" s="0"/>
+      <c r="L164" s="0"/>
+      <c r="M164" s="0"/>
+      <c r="N164" s="0"/>
+      <c r="O164" s="0"/>
+      <c r="P164" s="0"/>
+      <c r="Q164" s="0"/>
+      <c r="R164" s="0"/>
+      <c r="S164" s="0"/>
+      <c r="T164" s="0"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0"/>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
+      <c r="M165" s="0"/>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
+      <c r="Q165" s="0"/>
+      <c r="R165" s="0"/>
+      <c r="S165" s="0"/>
+      <c r="T165" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
